--- a/Calc_As_Output.xlsx
+++ b/Calc_As_Output.xlsx
@@ -1355,11 +1355,7 @@
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>6) 철근량 검토</t>
-        </is>
-      </c>
+      <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="n"/>
@@ -1392,11 +1388,7 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>As,min = max((0.25 √fck / fy) x b x d, (1.4 / fy) x b x d) = 3054.7 mm²</t>
-        </is>
-      </c>
+      <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n"/>
       <c r="F28" s="1" t="inlineStr">
@@ -1487,7 +1479,11 @@
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>6) 철근비 검토</t>
+        </is>
+      </c>
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="n"/>
@@ -1516,7 +1512,11 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ρmin : 1.4 / fy          = 0.002800 </t>
+        </is>
+      </c>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n"/>
       <c r="F32" s="1" t="n"/>
@@ -1544,7 +1544,11 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       0.25 x √fck / fy  = 0.009466,  ρmin = 0.009466 적용</t>
+        </is>
+      </c>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
       <c r="F33" s="1" t="n"/>
@@ -1572,7 +1576,11 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>ρmax = 0.75 x ρb = 0.75 x (0.85 x β1 x fck / fy) x (6,000 / (6,000 + fy)) = 0.043993</t>
+        </is>
+      </c>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n"/>
       <c r="F34" s="1" t="n"/>
@@ -1600,7 +1608,11 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ρuse = As / ( b x d ) = 0.006067 </t>
+        </is>
+      </c>
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="n"/>
       <c r="F35" s="1" t="n"/>
@@ -1628,7 +1640,11 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>ρmax ≥ ρuse &lt; ρmin --&gt; 최소철근비 불만족,  최대 철근비 만족   ∴ N.G</t>
+        </is>
+      </c>
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="n"/>
       <c r="F36" s="1" t="n"/>
@@ -1656,7 +1672,11 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>ρuse ≥ 4 x ρreq / 3 = 0.005391 --&gt; 최소철근비 만족   ∴ O.K</t>
+        </is>
+      </c>
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="n"/>
       <c r="F37" s="1" t="n"/>
@@ -1768,11 +1788,7 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>As,use = 3438.0 mm² ≥ As,min = 3054.7 mm²  ∴ O.K</t>
-        </is>
-      </c>
+      <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>

--- a/Calc_As_Output.xlsx
+++ b/Calc_As_Output.xlsx
@@ -854,7 +854,7 @@
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>T = As x fy = 3438.000 x 500.000 = 1719000.000 N</t>
+          <t>T = As x fy = 3438.000 x 500.000 = 1719000.0 N</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
@@ -886,7 +886,7 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>C = 0.85 x fck x a x b = 0.85 x 35.000 x a x 1000.000</t>
+          <t>C = 0.85 x fck x a x b = 0.85 x 35.000 x a x 1000.000 = 29750.0 x a</t>
         </is>
       </c>
       <c r="D12" s="1" t="n"/>
@@ -1731,7 +1731,11 @@
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>7) 설계 휨강도 산정</t>
+        </is>
+      </c>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
       <c r="E39" s="1" t="n"/>
@@ -1760,7 +1764,11 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>a = As x fy / (0.85 x fck x b) = 57.782mm</t>
+        </is>
+      </c>
       <c r="D40" s="1" t="n"/>
       <c r="E40" s="1" t="n"/>
       <c r="F40" s="1" t="n"/>
@@ -1788,7 +1796,11 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Ø Mn = Øf x As x fy x (d - a / 2)</t>
+        </is>
+      </c>
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
@@ -1816,7 +1828,11 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     = 0.85 x 3438.0 x 500 x (566.7 - 57.782 / 2)</t>
+        </is>
+      </c>
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
@@ -1844,7 +1860,11 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   = 785771271.4 N.mm ≥ Mu = 627075000.0 N.mm  ∴ O.K  [S.F = 1.253]</t>
+        </is>
+      </c>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
@@ -1871,11 +1891,7 @@
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>7) 중립축 깊이 검토</t>
-        </is>
-      </c>
+      <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
@@ -1904,11 +1920,7 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>C = a / β1 = 57.8 / 0.801 = 72.1 mm</t>
-        </is>
-      </c>
+      <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
@@ -2075,11 +2087,7 @@
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>8) 인장철근 변형률</t>
-        </is>
-      </c>
+      <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="n"/>
@@ -2108,11 +2116,7 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>εt = 0.02057</t>
-        </is>
-      </c>
+      <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="n"/>
       <c r="F52" s="1" t="n"/>
@@ -2140,11 +2144,7 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>εy = 0.00250</t>
-        </is>
-      </c>
+      <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="n"/>
       <c r="F53" s="1" t="n"/>
@@ -2172,11 +2172,7 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>Strain check result: 인장지배단면</t>
-        </is>
-      </c>
+      <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="n"/>
       <c r="F54" s="1" t="n"/>
@@ -2259,11 +2255,7 @@
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>9) 설계 휨강도 산정</t>
-        </is>
-      </c>
+      <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="n"/>
@@ -2292,11 +2284,7 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t>Mr = As x Øf x fy x (d - a / 2)</t>
-        </is>
-      </c>
+      <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="n"/>
       <c r="F58" s="1" t="n"/>
@@ -2324,11 +2312,7 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   = 3438.0 x 0.85 x 500 x (566.7 - 57.8 / 2)</t>
-        </is>
-      </c>
+      <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n"/>
       <c r="F59" s="1" t="n"/>
@@ -2356,11 +2340,7 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   = 785771271.4 N.mm ≥ Mu = 627075000.0 N.mm  ∴ O.K  [S.F = 1.253]</t>
-        </is>
-      </c>
+      <c r="C60" s="1" t="n"/>
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="n"/>
       <c r="F60" s="1" t="n"/>
